--- a/DATA_goal/Junction_Flooding_424.xlsx
+++ b/DATA_goal/Junction_Flooding_424.xlsx
@@ -446,10 +446,10 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
@@ -461,8 +461,8 @@
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="6" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="6" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
@@ -473,7 +473,7 @@
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>44782.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.34</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.6</v>
+        <v>5.98</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.25</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.04</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.75</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.05</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.48</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.59</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>4.31</v>
+        <v>43.1</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.95</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.36</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.65</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.75</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.75</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.61</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44782.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.92</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.75</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.79</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.77</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.06</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.51</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.42</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44782.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>55.31</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.55</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.09</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.3</v>
+        <v>3.04</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.11</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.57</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.34</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.11</v>
+        <v>11.15</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.3</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44782.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>38.27</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.4</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.55</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.19</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.26</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.89</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.7</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.69</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_424.xlsx
+++ b/DATA_goal/Junction_Flooding_424.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.84027777778</v>
+        <v>45105.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.93</v>
+        <v>20.658</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.34</v>
+        <v>14.028</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>4.08</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.98</v>
+        <v>43.704</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.25</v>
+        <v>35.637</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.51</v>
+        <v>16.257</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.57</v>
+        <v>52.557</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.04</v>
+        <v>25.014</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.75</v>
+        <v>10.522</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.53</v>
+        <v>16.084</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.05</v>
+        <v>17.263</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.18</v>
+        <v>18.024</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.79</v>
+        <v>5.19</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.48</v>
+        <v>16.166</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.59</v>
+        <v>22.644</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.5</v>
+        <v>13.689</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.04</v>
+        <v>3.709</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.42</v>
+        <v>2.453</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>43.1</v>
+        <v>238.72</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>7.95</v>
+        <v>44.979</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.36</v>
+        <v>14.922</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>6.65</v>
+        <v>29.658</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.75</v>
+        <v>15.316</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.48</v>
+        <v>2.936</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.77</v>
+        <v>26.039</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.54</v>
+        <v>13.181</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>3.07</v>
+        <v>11.919</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.75</v>
+        <v>13.951</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>5.61</v>
+        <v>17.711</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.458</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.04</v>
+        <v>46.546</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.08</v>
+        <v>8.337999999999999</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.31</v>
+        <v>18.656</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.84722222222</v>
+        <v>45105.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.21</v>
+        <v>21.619</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.61</v>
+        <v>15.538</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.983</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>46.625</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.92</v>
+        <v>38.224</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.25</v>
+        <v>17.013</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.75</v>
+        <v>65.31399999999999</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>26.178</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.46</v>
+        <v>11.432</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.34</v>
+        <v>17.079</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.32</v>
+        <v>18.703</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.33</v>
+        <v>19.594</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.15</v>
+        <v>5.435</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.79</v>
+        <v>16.918</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.54</v>
+        <v>23.946</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.17</v>
+        <v>14.39</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.53</v>
+        <v>1.647</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.26</v>
+        <v>1.234</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.79</v>
+        <v>250.204</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.77</v>
+        <v>47.326</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.19</v>
+        <v>15.616</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.06</v>
+        <v>31.557</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.66</v>
+        <v>16.606</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.11</v>
+        <v>2.723</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.51</v>
+        <v>31.616</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.16</v>
+        <v>13.794</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.78</v>
+        <v>12.374</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.71</v>
+        <v>14.515</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.64</v>
+        <v>19.399</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.266</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.42</v>
+        <v>59.3</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.54</v>
+        <v>8.77</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>19.524</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.85416666666</v>
+        <v>45105.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.47</v>
+        <v>21.139</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.55</v>
+        <v>15.421</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.479</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>10.52</v>
+        <v>45.758</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>10.29</v>
+        <v>37.566</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.79</v>
+        <v>16.636</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>13.44</v>
+        <v>65.17100000000001</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>6</v>
+        <v>25.596</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.76</v>
+        <v>11.287</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.69</v>
+        <v>16.796</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.92</v>
+        <v>18.394</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.15</v>
+        <v>19.308</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.26</v>
+        <v>5.314</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.15</v>
+        <v>16.542</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.41</v>
+        <v>23.487</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.09</v>
+        <v>14.01</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.42</v>
+        <v>1.112</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.33</v>
+        <v>0.961</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>55.31</v>
+        <v>244.483</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>10.97</v>
+        <v>46.285</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.12</v>
+        <v>15.269</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>7.91</v>
+        <v>30.994</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.99</v>
+        <v>16.325</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.55</v>
+        <v>2.535</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.09</v>
+        <v>31.365</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.04</v>
+        <v>13.487</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.11</v>
+        <v>12.028</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.57</v>
+        <v>14.123</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.34</v>
+        <v>19.164</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>11.15</v>
+        <v>59.107</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.3</v>
+        <v>8.595000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.56</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.86111111111</v>
+        <v>45105.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.99</v>
+        <v>0.96</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.32</v>
+        <v>0.38</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.59</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>7.65</v>
+        <v>1.94</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>7.5</v>
+        <v>1.37</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.74</v>
+        <v>0.77</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>12.31</v>
+        <v>11.86</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.36</v>
+        <v>1.16</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.06</v>
+        <v>0.57</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.43</v>
+        <v>0.47</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.58</v>
+        <v>0.82</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.74</v>
+        <v>0.74</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.93</v>
+        <v>0.29</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.01</v>
+        <v>0.75</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3.99</v>
+        <v>1.21</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.22</v>
+        <v>0.88</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.32</v>
+        <v>0.7</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>38.27</v>
+        <v>4.32</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>8.17</v>
+        <v>2.78</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.99</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.96</v>
+        <v>1.88</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.96</v>
+        <v>0.87</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.55</v>
+        <v>4.92</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.19</v>
+        <v>0.61</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.26</v>
+        <v>0.71</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.62</v>
+        <v>0.79</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.89</v>
+        <v>0.73</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>10.7</v>
+        <v>11.42</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.69</v>
+        <v>0.3</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.31</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.32</v>
+        <v>0.89</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_424.xlsx
+++ b/DATA_goal/Junction_Flooding_424.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
-    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45105.50694444445</v>
+        <v>44782.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>20.658</v>
+        <v>4.928</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>14.028</v>
+        <v>5.344</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.08</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>43.704</v>
+        <v>5.978</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>35.637</v>
+        <v>10.253</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>16.257</v>
+        <v>2.511</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>52.557</v>
+        <v>8.567</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>25.014</v>
+        <v>4.041</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.522</v>
+        <v>1.748</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>16.084</v>
+        <v>4.53</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>17.263</v>
+        <v>5.048</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>18.024</v>
+        <v>5.182</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.19</v>
+        <v>0.791</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>16.166</v>
+        <v>3.479</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>22.644</v>
+        <v>3.593</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.689</v>
+        <v>1.503</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.709</v>
+        <v>1.042</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.453</v>
+        <v>0.417</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>238.72</v>
+        <v>43.098</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>44.979</v>
+        <v>7.946</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>14.922</v>
+        <v>4.36</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>29.658</v>
+        <v>6.645</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>15.316</v>
+        <v>2.748</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.936</v>
+        <v>0.484</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>26.039</v>
+        <v>2.765</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>13.181</v>
+        <v>1.536</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.919</v>
+        <v>3.068</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.951</v>
+        <v>2.75</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>17.711</v>
+        <v>5.612</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.458</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>46.546</v>
+        <v>5.035</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.337999999999999</v>
+        <v>2.082</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>18.656</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45105.51388888889</v>
+        <v>44782.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>21.619</v>
+        <v>1.206</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.538</v>
+        <v>1.61</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.983</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>46.625</v>
+        <v>0.555</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>38.224</v>
+        <v>2.917</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>17.013</v>
+        <v>0.249</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>65.31399999999999</v>
+        <v>4.747</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>26.178</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.432</v>
+        <v>0.461</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>17.079</v>
+        <v>1.336</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>18.703</v>
+        <v>1.32</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>19.594</v>
+        <v>1.335</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.435</v>
+        <v>0.154</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>16.918</v>
+        <v>0.794</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>23.946</v>
+        <v>0.54</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.39</v>
+        <v>0.166</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.647</v>
+        <v>0.529</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.234</v>
+        <v>0.257</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>250.204</v>
+        <v>3.794</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>47.326</v>
+        <v>1.774</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>15.616</v>
+        <v>1.192</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>31.557</v>
+        <v>2.063</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>16.606</v>
+        <v>0.661</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.723</v>
+        <v>0.112</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>31.616</v>
+        <v>1.515</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.794</v>
+        <v>0.157</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.374</v>
+        <v>0.782</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>14.515</v>
+        <v>0.707</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>19.399</v>
+        <v>1.642</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.266</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>59.3</v>
+        <v>3.424</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.77</v>
+        <v>0.537</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>19.524</v>
+        <v>0.5639999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45105.52083333334</v>
+        <v>44782.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>21.139</v>
+        <v>5.468</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>15.421</v>
+        <v>4.548</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.479</v>
+        <v>0.102</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>45.758</v>
+        <v>10.525</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>37.566</v>
+        <v>10.289</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>16.636</v>
+        <v>3.794</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>65.17100000000001</v>
+        <v>13.44</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>25.596</v>
+        <v>6</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>11.287</v>
+        <v>2.758</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>16.796</v>
+        <v>4.689</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>18.394</v>
+        <v>4.917</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>19.308</v>
+        <v>5.151</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.314</v>
+        <v>1.263</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>16.542</v>
+        <v>4.153</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>23.487</v>
+        <v>5.408</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>14.01</v>
+        <v>3.088</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.112</v>
+        <v>0.417</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.961</v>
+        <v>0.329</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>244.483</v>
+        <v>55.308</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>46.285</v>
+        <v>10.975</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>15.269</v>
+        <v>4.118</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>30.994</v>
+        <v>7.907</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>16.325</v>
+        <v>3.995</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.535</v>
+        <v>0.549</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>31.365</v>
+        <v>6.086</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>13.487</v>
+        <v>3.037</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12.028</v>
+        <v>3.107</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>14.123</v>
+        <v>3.574</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>19.164</v>
+        <v>5.341</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.773</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>59.107</v>
+        <v>11.149</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.595000000000001</v>
+        <v>2.299</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>19.09</v>
+        <v>4.558</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45105.52777777778</v>
+        <v>44782.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.96</v>
+        <v>3.988</v>
       </c>
       <c r="C5" s="4" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>7.651</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>7.496</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>2.741</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>12.315</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>4.358</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>2.063</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>3.428</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>3.581</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>3.743</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>3.988</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2.224</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>38.272</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>8.167</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>5.959</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>2.963</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>5.547</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>2.187</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>2.262</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>2.621</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>3.887</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>10.697</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>1.688</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>3.311</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44782.86804398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AC6" s="4" t="n">
         <v>0.38</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="N5" s="4" t="n">
+      <c r="AD6" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="AG6" s="4" t="n">
         <v>0.29</v>
       </c>
-      <c r="O5" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>11.42</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>0.89</v>
+      <c r="AH6" s="4" t="n">
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_424.xlsx
+++ b/DATA_goal/Junction_Flooding_424.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.84027777778</v>
+        <v>45105.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.928</v>
+        <v>20.658</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.344</v>
+        <v>14.028</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>4.08</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.978</v>
+        <v>43.704</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.253</v>
+        <v>35.637</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.511</v>
+        <v>16.257</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.567</v>
+        <v>52.557</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.041</v>
+        <v>25.014</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.748</v>
+        <v>10.522</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.53</v>
+        <v>16.084</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.048</v>
+        <v>17.263</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.182</v>
+        <v>18.024</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.791</v>
+        <v>5.19</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.479</v>
+        <v>16.166</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.593</v>
+        <v>22.644</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.503</v>
+        <v>13.689</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.042</v>
+        <v>3.709</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.417</v>
+        <v>2.453</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>43.098</v>
+        <v>238.72</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>7.946</v>
+        <v>44.979</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.36</v>
+        <v>14.922</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>6.645</v>
+        <v>29.658</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.748</v>
+        <v>15.316</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.484</v>
+        <v>2.936</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.765</v>
+        <v>26.039</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.536</v>
+        <v>13.181</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>3.068</v>
+        <v>11.919</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.75</v>
+        <v>13.951</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>5.612</v>
+        <v>17.711</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.458</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.035</v>
+        <v>46.546</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.082</v>
+        <v>8.337999999999999</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.31</v>
+        <v>18.656</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.84722222222</v>
+        <v>45105.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.206</v>
+        <v>21.619</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.61</v>
+        <v>15.538</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.983</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.555</v>
+        <v>46.625</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.917</v>
+        <v>38.224</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.249</v>
+        <v>17.013</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.747</v>
+        <v>65.31399999999999</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.5610000000000001</v>
+        <v>26.178</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.461</v>
+        <v>11.432</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.336</v>
+        <v>17.079</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.32</v>
+        <v>18.703</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.335</v>
+        <v>19.594</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.154</v>
+        <v>5.435</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.794</v>
+        <v>16.918</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.54</v>
+        <v>23.946</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.166</v>
+        <v>14.39</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.529</v>
+        <v>1.647</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.257</v>
+        <v>1.234</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.794</v>
+        <v>250.204</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.774</v>
+        <v>47.326</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.192</v>
+        <v>15.616</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.063</v>
+        <v>31.557</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.661</v>
+        <v>16.606</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.112</v>
+        <v>2.723</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.515</v>
+        <v>31.616</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.157</v>
+        <v>13.794</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.782</v>
+        <v>12.374</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.707</v>
+        <v>14.515</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.642</v>
+        <v>19.399</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.266</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.424</v>
+        <v>59.3</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.537</v>
+        <v>8.77</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.5639999999999999</v>
+        <v>19.524</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.85416666666</v>
+        <v>45105.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.468</v>
+        <v>21.139</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.548</v>
+        <v>15.421</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.102</v>
+        <v>1.479</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>10.525</v>
+        <v>45.758</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>10.289</v>
+        <v>37.566</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.794</v>
+        <v>16.636</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>13.44</v>
+        <v>65.17100000000001</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>6</v>
+        <v>25.596</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.758</v>
+        <v>11.287</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.689</v>
+        <v>16.796</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.917</v>
+        <v>18.394</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.151</v>
+        <v>19.308</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.263</v>
+        <v>5.314</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.153</v>
+        <v>16.542</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.408</v>
+        <v>23.487</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.088</v>
+        <v>14.01</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.417</v>
+        <v>1.112</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.329</v>
+        <v>0.961</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>55.308</v>
+        <v>244.483</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>10.975</v>
+        <v>46.285</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.118</v>
+        <v>15.269</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>7.907</v>
+        <v>30.994</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.995</v>
+        <v>16.325</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.549</v>
+        <v>2.535</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.086</v>
+        <v>31.365</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.037</v>
+        <v>13.487</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.107</v>
+        <v>12.028</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.574</v>
+        <v>14.123</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.341</v>
+        <v>19.164</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>11.149</v>
+        <v>59.107</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.299</v>
+        <v>8.595000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.558</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.86111111111</v>
+        <v>45105.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.988</v>
+        <v>0.96</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.32</v>
+        <v>0.38</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.59</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>7.651</v>
+        <v>1.94</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>7.496</v>
+        <v>1.37</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.741</v>
+        <v>0.77</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>12.315</v>
+        <v>11.86</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.358</v>
+        <v>1.16</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.063</v>
+        <v>0.57</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.428</v>
+        <v>0.47</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.581</v>
+        <v>0.82</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.743</v>
+        <v>0.74</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.013</v>
+        <v>0.75</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3.988</v>
+        <v>1.21</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.224</v>
+        <v>0.88</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.322</v>
+        <v>0.7</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.252</v>
+        <v>0.26</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>38.272</v>
+        <v>4.32</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>8.167</v>
+        <v>2.78</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.988</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.959</v>
+        <v>1.88</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.963</v>
+        <v>0.87</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.398</v>
+        <v>0.39</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.547</v>
+        <v>4.92</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.187</v>
+        <v>0.61</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.262</v>
+        <v>0.71</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.621</v>
+        <v>0.79</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.887</v>
+        <v>0.73</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>10.697</v>
+        <v>11.42</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.688</v>
+        <v>0.3</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.311</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.32</v>
+        <v>0.89</v>
       </c>
     </row>
   </sheetData>
